--- a/DataAnalysis/analysis models design.xlsx
+++ b/DataAnalysis/analysis models design.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\PythonProjects\easymoney\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB93D05-2674-4179-8D24-965F38893265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF741E-2670-4492-8851-62657AA7EA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27210" tabRatio="506" activeTab="2" xr2:uid="{8425AE12-CFA3-444F-838E-7FECBD5EFF66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27825" tabRatio="506" activeTab="3" xr2:uid="{8425AE12-CFA3-444F-838E-7FECBD5EFF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="model 1" sheetId="2" r:id="rId2"/>
     <sheet name="finance" sheetId="3" r:id="rId3"/>
+    <sheet name="all stock model" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$563</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -420,6 +421,54 @@
   </si>
   <si>
     <t>速动比率</t>
+  </si>
+  <si>
+    <t>ts_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dv_ttm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_ttm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_mv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -27311,7 +27360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C32509-5F01-48D0-BCAA-4774BA5857C9}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -27520,4 +27569,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A257DC61-7350-44FB-B83D-F79237176452}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>